--- a/StructureDefinition-ext-R5-GraphDefinition.link.xlsx
+++ b/StructureDefinition-ext-R5-GraphDefinition.link.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="271">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -719,12 +719,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-graph-compartment-use-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:compartment.extension:rule</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
     <t>Extension.extension:compartment.extension:rule.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-graph-compartment-rule-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:compartment.extension:code</t>
   </si>
   <si>
@@ -790,7 +781,10 @@
     <t>Extension.extension:compartment.extension:code.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-compartment-type-for-R4|0.0.1-snapshot-3</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-compartment-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:compartment.extension:expression</t>
@@ -1219,7 +1213,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.03125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.5390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6644,11 +6638,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6686,13 +6682,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6717,14 +6713,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6793,7 +6789,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>215</v>
@@ -6896,7 +6892,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>217</v>
@@ -7001,7 +6997,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>219</v>
@@ -7044,7 +7040,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7106,7 +7102,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>222</v>
@@ -7135,10 +7131,10 @@
         <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7165,11 +7161,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7207,13 +7205,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7238,14 +7236,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7314,7 +7312,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>215</v>
@@ -7417,7 +7415,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>217</v>
@@ -7522,7 +7520,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>219</v>
@@ -7565,7 +7563,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7627,7 +7625,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>222</v>
@@ -7656,10 +7654,10 @@
         <v>223</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7686,11 +7684,11 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -7728,13 +7726,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7759,14 +7757,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7835,7 +7833,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>215</v>
@@ -7938,7 +7936,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>217</v>
@@ -8043,7 +8041,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>219</v>
@@ -8086,7 +8084,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8148,7 +8146,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>222</v>
@@ -8177,10 +8175,10 @@
         <v>87</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8251,7 +8249,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
@@ -8282,14 +8280,14 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8356,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>215</v>
@@ -8461,7 +8459,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>217</v>
@@ -8566,7 +8564,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>219</v>
@@ -8609,7 +8607,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8671,7 +8669,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>222</v>
@@ -8700,10 +8698,10 @@
         <v>87</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8774,7 +8772,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -8817,7 +8815,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8879,7 +8877,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -8905,13 +8903,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9113,13 +9111,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
